--- a/resources/Graphics.xlsx
+++ b/resources/Graphics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jajak\Desktop\Netcracker\Java\Homework3\task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jajak\Desktop\Netcracker\Java\Homework3\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0595D7E1-32AB-4F8C-A7D2-2E4FC37CA009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F638D8-71D9-4C8D-935E-B600DB693ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C7285F9-6807-4F99-84F0-E3688D72B4D9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>add</t>
   </si>
@@ -72,12 +72,21 @@
   <si>
     <t>put</t>
   </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>LinkedHashMap</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,14 +100,6 @@
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6A8759"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -318,16 +316,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17045300</c:v>
+                  <c:v>13223300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25905500</c:v>
+                  <c:v>13001600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17206300</c:v>
+                  <c:v>13113800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26667400</c:v>
+                  <c:v>13764500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -390,16 +388,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17442100</c:v>
+                  <c:v>13316700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18288000</c:v>
+                  <c:v>13668100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16501700</c:v>
+                  <c:v>13023200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40050000</c:v>
+                  <c:v>15554700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -462,16 +460,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7600</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1781100</c:v>
+                  <c:v>1929500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1814000</c:v>
+                  <c:v>2131300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5600</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,13 +847,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2952377100</c:v>
+                  <c:v>671863500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2867636800</c:v>
+                  <c:v>625050300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>173536000</c:v>
+                  <c:v>224962699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,13 +1170,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9000</c:v>
+                  <c:v>21100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26400</c:v>
+                  <c:v>18700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27100</c:v>
+                  <c:v>28100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,13 +1519,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2223899000</c:v>
+                  <c:v>3309247501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2155604700</c:v>
+                  <c:v>3560761200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5058434100</c:v>
+                  <c:v>11328284800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,13 +1854,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>HashSet</c:v>
+                  <c:v>HashMap</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LinkedHashSet</c:v>
+                  <c:v>LinkedHashMap</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TreeSet</c:v>
+                  <c:v>TreeMap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1874,13 +1872,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5892040500</c:v>
+                  <c:v>3206497400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3252942900</c:v>
+                  <c:v>3621397600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5011601400</c:v>
+                  <c:v>11175900500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2204,13 +2202,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>HashSet</c:v>
+                  <c:v>HashMap</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LinkedHashSet</c:v>
+                  <c:v>LinkedHashMap</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TreeSet</c:v>
+                  <c:v>TreeMap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2222,13 +2220,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13600</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15800</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32700</c:v>
+                  <c:v>16100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2270,13 +2268,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>HashSet</c:v>
+                  <c:v>HashMap</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LinkedHashSet</c:v>
+                  <c:v>LinkedHashMap</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TreeSet</c:v>
+                  <c:v>TreeMap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2288,13 +2286,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9300</c:v>
+                  <c:v>15800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10600</c:v>
+                  <c:v>16500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38300</c:v>
+                  <c:v>23000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6227,8 +6225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA455DE9-0865-43D9-97DE-42A8D1848DD5}">
   <dimension ref="A3:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6264,60 +6262,60 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>2952377100</v>
+      <c r="B4" s="1">
+        <v>671863500</v>
       </c>
-      <c r="C4">
-        <v>17045300</v>
+      <c r="C4" s="1">
+        <v>13223300</v>
       </c>
-      <c r="D4">
-        <v>25905500</v>
+      <c r="D4" s="1">
+        <v>13001600</v>
       </c>
-      <c r="E4">
-        <v>17206300</v>
+      <c r="E4" s="1">
+        <v>13113800</v>
       </c>
-      <c r="F4">
-        <v>26667400</v>
+      <c r="F4" s="1">
+        <v>13764500</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>2867636800</v>
+      <c r="B5" s="1">
+        <v>625050300</v>
       </c>
-      <c r="C5" s="2">
-        <v>17442100</v>
+      <c r="C5" s="1">
+        <v>13316700</v>
       </c>
-      <c r="D5">
-        <v>18288000</v>
+      <c r="D5" s="1">
+        <v>13668100</v>
       </c>
-      <c r="E5">
-        <v>16501700</v>
+      <c r="E5" s="1">
+        <v>13023200</v>
       </c>
-      <c r="F5">
-        <v>40050000</v>
+      <c r="F5" s="1">
+        <v>15554700</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>173536000</v>
+      <c r="B6" s="1">
+        <v>224962699</v>
       </c>
       <c r="C6" s="1">
-        <v>7600</v>
+        <v>5500</v>
       </c>
-      <c r="D6">
-        <v>1781100</v>
+      <c r="D6" s="1">
+        <v>1929500</v>
       </c>
-      <c r="E6">
-        <v>1814000</v>
+      <c r="E6" s="1">
+        <v>2131300</v>
       </c>
       <c r="F6" s="1">
-        <v>5600</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6336,10 +6334,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>2223899000</v>
+        <v>3309247501</v>
       </c>
       <c r="C28" s="1">
-        <v>9000</v>
+        <v>21100</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6347,10 +6345,10 @@
         <v>10</v>
       </c>
       <c r="B29" s="1">
-        <v>2155604700</v>
+        <v>3560761200</v>
       </c>
       <c r="C29" s="1">
-        <v>26400</v>
+        <v>18700</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6358,10 +6356,10 @@
         <v>11</v>
       </c>
       <c r="B30" s="1">
-        <v>5058434100</v>
+        <v>11328284800</v>
       </c>
       <c r="C30" s="1">
-        <v>27100</v>
+        <v>28100</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -6381,45 +6379,44 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B49" s="1">
-        <v>5892040500</v>
+        <v>3206497400</v>
       </c>
       <c r="C49" s="1">
-        <v>13600</v>
+        <v>8100</v>
       </c>
       <c r="D49" s="1">
-        <v>9300</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B50" s="1">
-        <f>AVERAGE(2019198400,4486687400)</f>
-        <v>3252942900</v>
+        <v>3621397600</v>
       </c>
       <c r="C50" s="1">
-        <v>15800</v>
+        <v>7500</v>
       </c>
       <c r="D50" s="1">
-        <v>10600</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B51" s="1">
-        <v>5011601400</v>
+        <v>11175900500</v>
       </c>
       <c r="C51" s="1">
-        <v>32700</v>
+        <v>16100</v>
       </c>
       <c r="D51" s="1">
-        <v>38300</v>
+        <v>23000</v>
       </c>
     </row>
   </sheetData>
